--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianroepke/Projects/Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D33CCB-4225-214B-843E-96D8EA5577B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76308297-DB14-6C40-A726-AE6D528860FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1300" windowWidth="27640" windowHeight="16940" xr2:uid="{12B4BC29-086D-2542-8375-5EBEB91B2636}"/>
+    <workbookView xWindow="16800" yWindow="11280" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{12B4BC29-086D-2542-8375-5EBEB91B2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Regression" sheetId="3" r:id="rId1"/>
@@ -1267,407 +1267,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="15875" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>182301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>232824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>265517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>307827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>450753</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>484245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>535776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>594604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>629684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>659109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>694050</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>874305</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4761393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5104714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5023121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5834911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5599829</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6712668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7083847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7296756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7602863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7643765</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7739618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9147263</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4799312.2858431507</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6050182.7980416697</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8551923.8224387057</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0AB-A542-B663-06D219FC6D35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1184958671"/>
-        <c:axId val="627873712"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1184958671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="627873712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="627873712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184958671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1708,565 +1307,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="38100">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2894,42 +1935,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B060F29-DC20-9B4F-80CE-1FB4157D21F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3237,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD42918-326E-8445-859A-CB4EFE73B5D4}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3622,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F09387-74CA-444F-BF9E-F8F806308F9F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianroepke/Projects/Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76308297-DB14-6C40-A726-AE6D528860FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB32A57-255C-A34D-9A6B-EFBB8D2EEFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="11280" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{12B4BC29-086D-2542-8375-5EBEB91B2636}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{12B4BC29-086D-2542-8375-5EBEB91B2636}"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel Regression" sheetId="3" r:id="rId1"/>
+    <sheet name="Excel Regression" sheetId="4" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>X</t>
   </si>
@@ -110,12 +110,6 @@
     <t>Upper 95%</t>
   </si>
   <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
-  <si>
     <t>RESIDUAL OUTPUT</t>
   </si>
   <si>
@@ -129,6 +123,18 @@
   </si>
   <si>
     <t>Slope</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Predict New Values</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -233,8 +239,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -301,7 +315,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -346,7 +360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Excel Regression'!$C$25:$C$36</c:f>
+              <c:f>'Excel Regression'!$D$26:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -392,7 +406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-73CB-4D49-B734-DD86AA032642}"/>
+              <c16:uniqueId val="{00000004-D8D2-6B4D-86DA-25168F82BD55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -404,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="738472047"/>
-        <c:axId val="738261391"/>
+        <c:axId val="234094336"/>
+        <c:axId val="234096016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="738472047"/>
+        <c:axId val="234094336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,12 +450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="738261391"/>
+        <c:crossAx val="234096016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="738261391"/>
+        <c:axId val="234096016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="738472047"/>
+        <c:crossAx val="234094336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -544,7 +558,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -589,7 +603,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$13</c:f>
+              <c:f>Data!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -635,7 +649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2009-584E-91FA-B28C2AFF17ED}"/>
+              <c16:uniqueId val="{00000004-47ED-EF4A-B627-A6C0479F5DB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,7 +666,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -697,7 +711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Excel Regression'!$B$25:$B$36</c:f>
+              <c:f>'Excel Regression'!$C$26:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -743,7 +757,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2009-584E-91FA-B28C2AFF17ED}"/>
+              <c16:uniqueId val="{00000005-47ED-EF4A-B627-A6C0479F5DB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,11 +769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="528260048"/>
-        <c:axId val="527534992"/>
+        <c:axId val="1082885759"/>
+        <c:axId val="1082887439"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="528260048"/>
+        <c:axId val="1082885759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527534992"/>
+        <c:crossAx val="1082887439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527534992"/>
+        <c:axId val="1082887439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528260048"/>
+        <c:crossAx val="1082885759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -849,6 +863,246 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Excel Regression'!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.833333333333343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Excel Regression'!$H$26:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4761393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5023121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5104714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5599829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5834911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6712668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7083847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7296756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7602863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7643765</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7739618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9147263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8CE-764A-82B8-62CF37F8AB66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1082900767"/>
+        <c:axId val="1082902415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1082900767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1082902415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1082902415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1082900767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -903,7 +1157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$B$1</c:f>
+              <c:f>Data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,7 +1241,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1032,7 +1286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$13</c:f>
+              <c:f>Data!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1829,27 +2083,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08589B94-9CA7-0947-ADBF-82BDA78F55AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1620262-C164-094B-8727-42B2A15C5003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1865,27 +2121,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AAB2E5-AF5E-5443-823A-5F82400B5134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C161E353-D7AF-7448-831B-E9BE70C8689A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1899,6 +2157,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FA2A2E-653A-3C4B-A40E-2C5F3E288E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1906,16 +2202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2239,385 +2535,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD42918-326E-8445-859A-CB4EFE73B5D4}">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD61FF3-DE02-B447-851F-CD96A48DD6B9}">
+  <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C5" s="2">
         <v>0.9781576210850772</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C6" s="2">
         <v>0.95679233168681754</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C7" s="2">
         <v>0.95247156485549933</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C8" s="2">
         <v>296110.92480530794</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>19416266169121.453</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="2">
         <v>19416266169121.453</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>221.44039913278647</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>3.7746275955949517E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>876816797890.54712</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>87681679789.054718</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D15" s="3">
         <v>20293082967012</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="4" t="s">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3548441.7736446327</v>
+      </c>
+      <c r="D18" s="2">
+        <v>223982.64791551093</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15.842485150828066</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.0657612090142015E-8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3049377.3336533201</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4047506.2136359452</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.2543525609925918</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.42029471714066291</v>
+      </c>
+      <c r="E19" s="3">
+        <v>14.880873601129288</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.7746275955949451E-8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5.317877572446899</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7.1908275495382847</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3548441.7736446327</v>
-      </c>
-      <c r="C17" s="2">
-        <v>223982.64791551093</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15.842485150828066</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.0657612090142015E-8</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3049377.3336533201</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4047506.2136359452</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3049377.3336533201</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4047506.2136359452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6.2543525609925918</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.42029471714066291</v>
-      </c>
-      <c r="D18" s="3">
-        <v>14.880873601129288</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.7746275955949451E-8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.317877572446899</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7.1908275495382847</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5.317877572446899</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7.1908275495382847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>4688616.4998661429</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D26" s="2">
         <v>72776.500133857131</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="E26" s="2">
+        <v>0.25777041941100748</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4761393</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C27" s="2">
         <v>5004605.1543051722</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D27" s="2">
         <v>100108.84569482785</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="E27" s="2">
+        <v>0.354580106133773</v>
+      </c>
+      <c r="G27" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5023121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C28" s="2">
         <v>5209078.7025817027</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D28" s="2">
         <v>-185957.70258170273</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="E28" s="2">
+        <v>-0.65865210471824864</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20.833333333333336</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5104714</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C29" s="2">
         <v>5473700.359437299</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D29" s="2">
         <v>361210.64056270104</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="E29" s="2">
+        <v>1.2793885133567957</v>
+      </c>
+      <c r="G29" s="2">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5599829</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C30" s="2">
         <v>6367609.953569727</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D30" s="2">
         <v>-767780.95356972702</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="E30" s="2">
+        <v>-2.719438528280909</v>
+      </c>
+      <c r="G30" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5834911</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C31" s="2">
         <v>6577080.7295424901</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D31" s="2">
         <v>135587.27045750991</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="E31" s="2">
+        <v>0.48024276391887649</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6712668</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C32" s="2">
         <v>6899373.7713629995</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D32" s="2">
         <v>184473.22863700055</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="E32" s="2">
+        <v>0.65339417845596914</v>
+      </c>
+      <c r="G32" s="2">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7083847</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C33" s="2">
         <v>7267304.8238210715</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D33" s="2">
         <v>29451.176178928465</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="E33" s="2">
+        <v>0.10431446994327327</v>
+      </c>
+      <c r="G33" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7296756</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
         <v>9</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C34" s="2">
         <v>7486707.5116606914</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D34" s="2">
         <v>116155.48833930865</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="E34" s="2">
+        <v>0.4114164447458033</v>
+      </c>
+      <c r="G34" s="2">
+        <v>70.833333333333343</v>
+      </c>
+      <c r="H34" s="2">
+        <v>7602863</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
         <v>10</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C35" s="2">
         <v>7670741.8357678987</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D35" s="2">
         <v>-26976.835767898709</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="E35" s="2">
+        <v>-9.5550490302267962E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>79.166666666666671</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7643765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
         <v>11</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C36" s="2">
         <v>7889275.1686015408</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D36" s="2">
         <v>-149657.16860154085</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="E36" s="2">
+        <v>-0.53007758063837063</v>
+      </c>
+      <c r="G36" s="2">
+        <v>87.500000000000014</v>
+      </c>
+      <c r="H36" s="2">
+        <v>7739618</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <v>12</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C37" s="3">
         <v>9016653.4894832596</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D37" s="3">
         <v>130609.51051674038</v>
       </c>
+      <c r="E37" s="3">
+        <v>0.46261180797431412</v>
+      </c>
+      <c r="G37" s="3">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="H37" s="3">
+        <v>9147263</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H26:H37">
+    <sortCondition ref="H26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2625,165 +3027,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F09387-74CA-444F-BF9E-F8F806308F9F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>182301</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>4761393</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <f>SLOPE(C3:C14,B3:B14)</f>
+        <v>6.2543525609925927</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>232824</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>5104714</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <f>SLOPE(B2:B13,A2:A13)</f>
-        <v>6.2543525609925927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>265517</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5023121</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1">
-        <f>INTERCEPT(B2:B13,A2:A13)</f>
+        <f>INTERCEPT(C3:C14,B3:B14)</f>
         <v>3548441.7736446322</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>265517</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5023121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>307827</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>5834911</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>450753</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <v>5599829</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>484245</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>6712668</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="E8" s="9">
+        <v>200000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>$F$3*E8+$F$4</f>
+        <v>4799312.2858431507</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>535776</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="1">
         <v>7083847</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="E9" s="9">
+        <v>400000</v>
+      </c>
+      <c r="F9" s="10">
+        <f>$F$3*E9+$F$4</f>
+        <v>6050182.7980416697</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>594604</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="1">
         <v>7296756</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="E10" s="9">
+        <v>800000</v>
+      </c>
+      <c r="F10" s="10">
+        <f>$F$3*E10+$F$4</f>
+        <v>8551923.8224387057</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>629684</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C11" s="1">
         <v>7602863</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>659109</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C12" s="1">
         <v>7643765</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>694050</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="1">
         <v>7739618</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>874305</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C14" s="1">
         <v>9147263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>200000</v>
-      </c>
-      <c r="B14" s="8">
-        <f>$F$3*A14+$F$4</f>
-        <v>4799312.2858431507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>400000</v>
-      </c>
-      <c r="B15" s="8">
-        <f>$F$3*A15+$F$4</f>
-        <v>6050182.7980416697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>800000</v>
-      </c>
-      <c r="B16" s="8">
-        <f>$F$3*A16+$F$4</f>
-        <v>8551923.8224387057</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianroepke/Projects/Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB32A57-255C-A34D-9A6B-EFBB8D2EEFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9AAE69-FC1B-A247-8DDE-67BB849A0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{12B4BC29-086D-2542-8375-5EBEB91B2636}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Regression" sheetId="4" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,9 +142,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -221,11 +224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -240,18 +244,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +611,7 @@
             <c:numRef>
               <c:f>Data!$C$3:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4761393</c:v>
@@ -830,7 +836,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1100,983 +1106,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="15875" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6558676890279541E-2"/>
-                  <c:y val="-0.12975227528377134"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$B$3:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>182301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>232824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>265517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>307827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>450753</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>484245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>535776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>594604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>629684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>659109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>694050</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>874305</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$C$3:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4761393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5104714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5023121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5834911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5599829</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6712668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7083847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7296756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7602863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7643765</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7739618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9147263</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-774C-4542-B49B-F2C0C6FEAE81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1459827471"/>
-        <c:axId val="1141102143"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1459827471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1141102143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1141102143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1459827471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="38100">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2190,47 +1219,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FDF41A-4F12-8C44-AB17-CAC324A2D652}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2538,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD61FF3-DE02-B447-851F-CD96A48DD6B9}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -3030,14 +2018,13 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
@@ -3057,7 +2044,7 @@
       <c r="B3" s="1">
         <v>182301</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>4761393</v>
       </c>
       <c r="E3" t="s">
@@ -3072,7 +2059,7 @@
       <c r="B4" s="1">
         <v>232824</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>5104714</v>
       </c>
       <c r="E4" t="s">
@@ -3087,7 +2074,7 @@
       <c r="B5" s="1">
         <v>265517</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>5023121</v>
       </c>
     </row>
@@ -3095,7 +2082,7 @@
       <c r="B6" s="1">
         <v>307827</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>5834911</v>
       </c>
     </row>
@@ -3103,22 +2090,22 @@
       <c r="B7" s="1">
         <v>450753</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>5599829</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>484245</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>6712668</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>200000</v>
       </c>
       <c r="F8" s="10">
@@ -3130,10 +2117,10 @@
       <c r="B9" s="1">
         <v>535776</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>7083847</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>400000</v>
       </c>
       <c r="F9" s="10">
@@ -3145,10 +2132,10 @@
       <c r="B10" s="1">
         <v>594604</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>7296756</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>800000</v>
       </c>
       <c r="F10" s="10">
@@ -3160,7 +2147,7 @@
       <c r="B11" s="1">
         <v>629684</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>7602863</v>
       </c>
     </row>
@@ -3168,7 +2155,7 @@
       <c r="B12" s="1">
         <v>659109</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>7643765</v>
       </c>
     </row>
@@ -3176,7 +2163,7 @@
       <c r="B13" s="1">
         <v>694050</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>7739618</v>
       </c>
     </row>
@@ -3184,7 +2171,7 @@
       <c r="B14" s="1">
         <v>874305</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>9147263</v>
       </c>
     </row>
@@ -3193,6 +2180,17 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6386FF5-4B77-D647-AA68-16712D6B1AD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>